--- a/test/data/prestatairedatatest.xlsx
+++ b/test/data/prestatairedatatest.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="-12800" yWindow="-21140" windowWidth="38400" windowHeight="21140" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="12">
   <si>
     <t>nom</t>
   </si>
@@ -54,6 +54,15 @@
   </si>
   <si>
     <t>TestVeolia</t>
+  </si>
+  <si>
+    <t>intermédiaire</t>
+  </si>
+  <si>
+    <t>TestSudI</t>
+  </si>
+  <si>
+    <t>TestVeoliaI</t>
   </si>
 </sst>
 </file>
@@ -368,55 +377,90 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:C5"/>
+  <dimension ref="AD1:AR5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A6" sqref="A6"/>
+    <sheetView tabSelected="1" topLeftCell="Y1" workbookViewId="0">
+      <selection activeCell="AC11" sqref="AC11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A2" t="s">
+    <row r="1" spans="30:44" x14ac:dyDescent="0.2">
+      <c r="AD1" t="s">
+        <v>9</v>
+      </c>
+      <c r="AP1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2" spans="30:44" x14ac:dyDescent="0.2">
+      <c r="AD2" t="s">
         <v>0</v>
       </c>
-      <c r="B2" t="s">
+      <c r="AE2" t="s">
         <v>1</v>
       </c>
-      <c r="C2" t="s">
+      <c r="AF2" t="s">
         <v>2</v>
       </c>
+      <c r="AP2" t="s">
+        <v>0</v>
+      </c>
+      <c r="AQ2" t="s">
+        <v>1</v>
+      </c>
+      <c r="AR2" t="s">
+        <v>2</v>
+      </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A3" t="s">
+    <row r="3" spans="30:44" x14ac:dyDescent="0.2">
+      <c r="AP3" t="s">
         <v>6</v>
       </c>
-      <c r="B3" t="s">
+      <c r="AQ3" t="s">
         <v>3</v>
       </c>
-      <c r="C3">
+      <c r="AR3">
         <v>1286910</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A4" t="s">
+    <row r="4" spans="30:44" x14ac:dyDescent="0.2">
+      <c r="AD4" t="s">
+        <v>10</v>
+      </c>
+      <c r="AE4" t="s">
+        <v>4</v>
+      </c>
+      <c r="AF4">
+        <v>986423</v>
+      </c>
+      <c r="AP4" t="s">
         <v>7</v>
       </c>
-      <c r="B4" t="s">
+      <c r="AQ4" t="s">
         <v>4</v>
       </c>
-      <c r="C4">
+      <c r="AR4">
         <v>986423</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A5" t="s">
+    <row r="5" spans="30:44" x14ac:dyDescent="0.2">
+      <c r="AD5" t="s">
+        <v>11</v>
+      </c>
+      <c r="AE5" t="s">
+        <v>5</v>
+      </c>
+      <c r="AF5">
+        <v>1218236</v>
+      </c>
+      <c r="AP5" t="s">
         <v>8</v>
       </c>
-      <c r="B5" t="s">
+      <c r="AQ5" t="s">
         <v>5</v>
       </c>
-      <c r="C5">
+      <c r="AR5">
         <v>1218236</v>
       </c>
     </row>
